--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -64,12 +64,12 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
@@ -79,198 +79,216 @@
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
     <t>rice</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>cooke</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
     <t>pie</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>daughter</t>
-  </si>
-  <si>
     <t>cheese</t>
   </si>
   <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>ze</t>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>cooking</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cooking</t>
+    <t>day</t>
   </si>
   <si>
     <t>easy</t>
   </si>
   <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>always</t>
   </si>
   <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>making</t>
+  </si>
+  <si>
     <t>exactly</t>
   </si>
   <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>pan</t>
+    <t>many</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>many</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>recommend</t>
-  </si>
-  <si>
     <t>make</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>coffee</t>
+    <t>bought</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>clean</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>hot</t>
   </si>
   <si>
@@ -280,19 +298,19 @@
     <t>one</t>
   </si>
   <si>
-    <t>really</t>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>made</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
+    <t>use</t>
   </si>
   <si>
     <t>used</t>
-  </si>
-  <si>
-    <t>use</t>
   </si>
   <si>
     <t>positive</t>
@@ -653,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q82"/>
+  <dimension ref="A1:Q88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -664,7 +682,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -722,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -740,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9655172413793104</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -764,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -772,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.65</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -790,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
@@ -822,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3953488372093023</v>
+        <v>0.3720930232558139</v>
       </c>
       <c r="C5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D5">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -840,19 +858,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8984375</v>
+        <v>0.8828125</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -864,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -872,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3232323232323233</v>
+        <v>0.3131313131313131</v>
       </c>
       <c r="C6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -890,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K6">
-        <v>0.8695652173913043</v>
+        <v>0.8761609907120743</v>
       </c>
       <c r="L6">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="M6">
-        <v>60</v>
+        <v>566</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -914,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -922,13 +940,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8560371517027864</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L7">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="M7">
-        <v>553</v>
+        <v>60</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>93</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -974,13 +992,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8260869565217391</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="L9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1010,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1026,13 +1044,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7489177489177489</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L11">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="M11">
-        <v>173</v>
+        <v>34</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1044,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1052,13 +1070,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7333333333333333</v>
+        <v>0.7532467532467533</v>
       </c>
       <c r="L12">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="M12">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1070,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1078,13 +1096,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6623376623376623</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L13">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="M13">
-        <v>51</v>
+        <v>165</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1096,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1104,13 +1122,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6542372881355932</v>
+        <v>0.6847457627118644</v>
       </c>
       <c r="L14">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M14">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1122,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1130,13 +1148,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6301369863013698</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L15">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="M15">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1148,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1156,13 +1174,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6274509803921569</v>
+        <v>0.65625</v>
       </c>
       <c r="L16">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M16">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1174,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1182,13 +1200,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.625</v>
+        <v>0.6356340288924559</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>792</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>792</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1200,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1208,13 +1226,13 @@
         <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6235955056179775</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L18">
-        <v>777</v>
+        <v>44</v>
       </c>
       <c r="M18">
-        <v>777</v>
+        <v>44</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1226,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>469</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1260,13 +1278,13 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6153846153846154</v>
+        <v>0.6078431372549019</v>
       </c>
       <c r="L20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M20">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1278,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1312,13 +1330,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.59375</v>
+        <v>0.5964912280701754</v>
       </c>
       <c r="L22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="M22">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1330,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1338,13 +1356,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5828571428571429</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L23">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1356,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>73</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1390,13 +1408,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5576923076923077</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L25">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="M25">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1408,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>46</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1416,13 +1434,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.5568862275449101</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>93</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1434,7 +1452,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1442,13 +1460,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.5555555555555556</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L27">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1460,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1468,13 +1486,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.5538461538461539</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L28">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="M28">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1486,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1494,13 +1512,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.543859649122807</v>
+        <v>0.5526315789473685</v>
       </c>
       <c r="L29">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="M29">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1512,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>26</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1520,13 +1538,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.5428571428571428</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1538,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1546,13 +1564,13 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.5180722891566265</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L31">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M31">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1564,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1572,13 +1590,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.5128205128205128</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L32">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="M32">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1590,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>57</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1598,13 +1616,13 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.5102040816326531</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L33">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1616,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1624,13 +1642,13 @@
         <v>44</v>
       </c>
       <c r="K34">
-        <v>0.5079365079365079</v>
+        <v>0.4957264957264957</v>
       </c>
       <c r="L34">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="M34">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1642,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>31</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1650,13 +1668,13 @@
         <v>45</v>
       </c>
       <c r="K35">
-        <v>0.45</v>
+        <v>0.4807692307692308</v>
       </c>
       <c r="L35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M35">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1668,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1676,25 +1694,25 @@
         <v>46</v>
       </c>
       <c r="K36">
-        <v>0.4473684210526316</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L36">
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>31</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
         <v>34</v>
-      </c>
-      <c r="M36">
-        <v>34</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>42</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1702,13 +1720,13 @@
         <v>47</v>
       </c>
       <c r="K37">
-        <v>0.4457831325301205</v>
+        <v>0.4698795180722892</v>
       </c>
       <c r="L37">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="M37">
-        <v>74</v>
+        <v>39</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1720,7 +1738,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>92</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1728,13 +1746,13 @@
         <v>48</v>
       </c>
       <c r="K38">
-        <v>0.4444444444444444</v>
+        <v>0.45</v>
       </c>
       <c r="L38">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1746,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1754,13 +1772,13 @@
         <v>49</v>
       </c>
       <c r="K39">
-        <v>0.4354838709677419</v>
+        <v>0.4197530864197531</v>
       </c>
       <c r="L39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="M39">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1772,7 +1790,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1780,13 +1798,13 @@
         <v>50</v>
       </c>
       <c r="K40">
-        <v>0.4135338345864661</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L40">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="M40">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1798,7 +1816,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>78</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1858,13 +1876,13 @@
         <v>53</v>
       </c>
       <c r="K43">
-        <v>0.3813229571984436</v>
+        <v>0.3834586466165413</v>
       </c>
       <c r="L43">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="M43">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1876,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>159</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1884,13 +1902,13 @@
         <v>54</v>
       </c>
       <c r="K44">
-        <v>0.3809523809523809</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M44">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1902,7 +1920,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1910,13 +1928,13 @@
         <v>55</v>
       </c>
       <c r="K45">
-        <v>0.3676470588235294</v>
+        <v>0.3657587548638132</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1928,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>43</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1936,13 +1954,13 @@
         <v>56</v>
       </c>
       <c r="K46">
-        <v>0.3431372549019608</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L46">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="M46">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1954,7 +1972,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1962,13 +1980,13 @@
         <v>57</v>
       </c>
       <c r="K47">
-        <v>0.3423423423423423</v>
+        <v>0.3603603603603603</v>
       </c>
       <c r="L47">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M47">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1980,7 +1998,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1988,13 +2006,13 @@
         <v>58</v>
       </c>
       <c r="K48">
-        <v>0.3164383561643835</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L48">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="M48">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2006,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>499</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2014,13 +2032,13 @@
         <v>59</v>
       </c>
       <c r="K49">
-        <v>0.3093525179856115</v>
+        <v>0.3406862745098039</v>
       </c>
       <c r="L49">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="M49">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2032,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>96</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2040,13 +2058,13 @@
         <v>60</v>
       </c>
       <c r="K50">
-        <v>0.3069306930693069</v>
+        <v>0.3267326732673267</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M50">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2058,7 +2076,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2066,13 +2084,13 @@
         <v>61</v>
       </c>
       <c r="K51">
-        <v>0.2976190476190476</v>
+        <v>0.326027397260274</v>
       </c>
       <c r="L51">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="M51">
-        <v>25</v>
+        <v>238</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2084,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>59</v>
+        <v>492</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2092,13 +2110,13 @@
         <v>62</v>
       </c>
       <c r="K52">
-        <v>0.2932330827067669</v>
+        <v>0.3055555555555556</v>
       </c>
       <c r="L52">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="M52">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2110,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2118,13 +2136,13 @@
         <v>63</v>
       </c>
       <c r="K53">
-        <v>0.2777777777777778</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2136,7 +2154,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2144,13 +2162,13 @@
         <v>64</v>
       </c>
       <c r="K54">
-        <v>0.2649006622516556</v>
+        <v>0.2805755395683453</v>
       </c>
       <c r="L54">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M54">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2162,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2170,13 +2188,13 @@
         <v>65</v>
       </c>
       <c r="K55">
-        <v>0.2631578947368421</v>
+        <v>0.2738095238095238</v>
       </c>
       <c r="L55">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="M55">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2188,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>154</v>
+        <v>61</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2196,13 +2214,13 @@
         <v>66</v>
       </c>
       <c r="K56">
-        <v>0.2432432432432433</v>
+        <v>0.2679425837320574</v>
       </c>
       <c r="L56">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="M56">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2214,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>84</v>
+        <v>153</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2222,13 +2240,13 @@
         <v>67</v>
       </c>
       <c r="K57">
-        <v>0.2389666307857912</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L57">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="M57">
-        <v>222</v>
+        <v>29</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2240,7 +2258,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>707</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2248,25 +2266,25 @@
         <v>68</v>
       </c>
       <c r="K58">
-        <v>0.2232142857142857</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N58">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>87</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2274,13 +2292,13 @@
         <v>69</v>
       </c>
       <c r="K59">
-        <v>0.2013422818791946</v>
+        <v>0.2556390977443609</v>
       </c>
       <c r="L59">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="M59">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2292,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>119</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2300,13 +2318,13 @@
         <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1912225705329154</v>
+        <v>0.2421959095801938</v>
       </c>
       <c r="L60">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="M60">
-        <v>61</v>
+        <v>225</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2318,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>258</v>
+        <v>704</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2326,13 +2344,13 @@
         <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1890243902439024</v>
+        <v>0.24</v>
       </c>
       <c r="L61">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M61">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2344,7 +2362,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>133</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2352,25 +2370,25 @@
         <v>72</v>
       </c>
       <c r="K62">
-        <v>0.188034188034188</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L62">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M62">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N62">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2378,13 +2396,13 @@
         <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1801324503311258</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L63">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="M63">
-        <v>136</v>
+        <v>68</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2396,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>619</v>
+        <v>251</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2404,25 +2422,25 @@
         <v>74</v>
       </c>
       <c r="K64">
-        <v>0.175416133162612</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="L64">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>138</v>
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>644</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2430,13 +2448,13 @@
         <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1623616236162362</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="L65">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="M65">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2448,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>227</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2456,13 +2474,13 @@
         <v>76</v>
       </c>
       <c r="K66">
-        <v>0.1536388140161725</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L66">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="M66">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2474,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>314</v>
+        <v>94</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2482,25 +2500,25 @@
         <v>77</v>
       </c>
       <c r="K67">
-        <v>0.137546468401487</v>
+        <v>0.1890243902439024</v>
       </c>
       <c r="L67">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="M67">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O67">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>232</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2508,13 +2526,13 @@
         <v>78</v>
       </c>
       <c r="K68">
-        <v>0.1355932203389831</v>
+        <v>0.1827814569536424</v>
       </c>
       <c r="L68">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2526,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>153</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2534,13 +2552,13 @@
         <v>79</v>
       </c>
       <c r="K69">
-        <v>0.1295454545454545</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="L69">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="M69">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2552,7 +2570,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>383</v>
+        <v>644</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2560,25 +2578,25 @@
         <v>80</v>
       </c>
       <c r="K70">
-        <v>0.1237113402061856</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="L70">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="M70">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>255</v>
+        <v>312</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2586,13 +2604,13 @@
         <v>81</v>
       </c>
       <c r="K71">
-        <v>0.1206140350877193</v>
+        <v>0.15</v>
       </c>
       <c r="L71">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="M71">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -2604,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>401</v>
+        <v>374</v>
       </c>
     </row>
     <row r="72" spans="10:17">
@@ -2612,13 +2630,13 @@
         <v>82</v>
       </c>
       <c r="K72">
-        <v>0.1193317422434367</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L72">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="M72">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2630,7 +2648,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>369</v>
+        <v>140</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2638,13 +2656,13 @@
         <v>83</v>
       </c>
       <c r="K73">
-        <v>0.1192214111922141</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L73">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="M73">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2656,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2664,13 +2682,13 @@
         <v>84</v>
       </c>
       <c r="K74">
-        <v>0.1182266009852217</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="L74">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M74">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2682,7 +2700,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2690,13 +2708,13 @@
         <v>85</v>
       </c>
       <c r="K75">
-        <v>0.1176470588235294</v>
+        <v>0.1355932203389831</v>
       </c>
       <c r="L75">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2708,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>210</v>
+        <v>153</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2716,25 +2734,25 @@
         <v>86</v>
       </c>
       <c r="K76">
-        <v>0.08045977011494253</v>
+        <v>0.1328413284132841</v>
       </c>
       <c r="L76">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="M76">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O76">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q76">
-        <v>640</v>
+        <v>235</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2742,25 +2760,25 @@
         <v>87</v>
       </c>
       <c r="K77">
-        <v>0.07749766573295985</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L77">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>84</v>
+        <v>35</v>
       </c>
       <c r="N77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O77">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q77">
-        <v>988</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2768,13 +2786,13 @@
         <v>88</v>
       </c>
       <c r="K78">
-        <v>0.07103825136612021</v>
+        <v>0.1265206812652068</v>
       </c>
       <c r="L78">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="M78">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2786,7 +2804,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>340</v>
+        <v>359</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2794,13 +2812,13 @@
         <v>89</v>
       </c>
       <c r="K79">
-        <v>0.05719557195571956</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L79">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M79">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2812,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>511</v>
+        <v>256</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -2820,13 +2838,13 @@
         <v>90</v>
       </c>
       <c r="K80">
-        <v>0.05583756345177665</v>
+        <v>0.116945107398568</v>
       </c>
       <c r="L80">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="M80">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2838,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -2846,25 +2864,25 @@
         <v>91</v>
       </c>
       <c r="K81">
-        <v>0.05566218809980806</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L81">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O81">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q81">
-        <v>492</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="10:17">
@@ -2872,25 +2890,181 @@
         <v>92</v>
       </c>
       <c r="K82">
-        <v>0.04329004329004329</v>
+        <v>0.08895265423242468</v>
       </c>
       <c r="L82">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="M82">
+        <v>63</v>
+      </c>
+      <c r="N82">
+        <v>0.98</v>
+      </c>
+      <c r="O82">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P82" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q82">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K83">
+        <v>0.07850467289719626</v>
+      </c>
+      <c r="L83">
+        <v>84</v>
+      </c>
+      <c r="M83">
+        <v>86</v>
+      </c>
+      <c r="N83">
+        <v>0.98</v>
+      </c>
+      <c r="O83">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K84">
+        <v>0.06345177664974619</v>
+      </c>
+      <c r="L84">
+        <v>25</v>
+      </c>
+      <c r="M84">
+        <v>25</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K85">
+        <v>0.06038647342995169</v>
+      </c>
+      <c r="L85">
+        <v>25</v>
+      </c>
+      <c r="M85">
+        <v>25</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K86">
+        <v>0.05914972273567468</v>
+      </c>
+      <c r="L86">
+        <v>32</v>
+      </c>
+      <c r="M86">
+        <v>33</v>
+      </c>
+      <c r="N86">
+        <v>0.97</v>
+      </c>
+      <c r="O86">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P86" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q86">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K87">
+        <v>0.04246100519930676</v>
+      </c>
+      <c r="L87">
+        <v>49</v>
+      </c>
+      <c r="M87">
         <v>52</v>
       </c>
-      <c r="N82">
-        <v>0.96</v>
-      </c>
-      <c r="O82">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P82" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q82">
+      <c r="N87">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O87">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P87" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q87">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K88">
+        <v>0.04230769230769231</v>
+      </c>
+      <c r="L88">
+        <v>22</v>
+      </c>
+      <c r="M88">
+        <v>24</v>
+      </c>
+      <c r="N88">
+        <v>0.92</v>
+      </c>
+      <c r="O88">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>498</v>
       </c>
     </row>
   </sheetData>
